--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/novicemin/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CFEDF1-475B-C143-AACC-F96F2C4E0B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966F7540-C20D-BF4E-B60E-619BFD9A27DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="700" windowWidth="38000" windowHeight="23100" xr2:uid="{157FFC9A-AEAE-1646-A6B2-20779C80091B}"/>
   </bookViews>
@@ -38,20 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
   <si>
     <t>취침</t>
   </si>
   <si>
-    <t>1학년</t>
-  </si>
-  <si>
-    <t>2학년</t>
-  </si>
-  <si>
-    <t>3학년</t>
-  </si>
-  <si>
     <t>기상 및 등교 &gt; meal:breakfast, timetable:-1</t>
   </si>
   <si>
@@ -173,6 +164,27 @@
   </si>
   <si>
     <t>생활관+I175이동 및 개인정비 &gt; myapplication:, laundry:</t>
+  </si>
+  <si>
+    <t>평일 1학년</t>
+  </si>
+  <si>
+    <t>평일 2학년</t>
+  </si>
+  <si>
+    <t>평일 3학년</t>
+  </si>
+  <si>
+    <t>잔류 1학년</t>
+  </si>
+  <si>
+    <t>잔류 2학년</t>
+  </si>
+  <si>
+    <t>잔류 3학년</t>
+  </si>
+  <si>
+    <t>시간</t>
   </si>
 </sst>
 </file>
@@ -180,7 +192,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-412]AM/PM\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -353,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -391,11 +403,14 @@
     <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,12 +730,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="5" width="66.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
@@ -730,29 +745,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="14"/>
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -773,10 +791,10 @@
       <c r="I2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C3" s="4"/>
@@ -787,7 +805,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C4" s="4"/>
@@ -798,7 +816,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="15">
         <v>1.0416666666666701E-2</v>
       </c>
       <c r="C5" s="4"/>
@@ -809,7 +827,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>1.38888888888889E-2</v>
       </c>
       <c r="C6" s="4"/>
@@ -820,7 +838,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="15">
         <v>1.7361111111111101E-2</v>
       </c>
       <c r="C7" s="4"/>
@@ -831,7 +849,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>2.0833333333333301E-2</v>
       </c>
       <c r="C8" s="4"/>
@@ -842,7 +860,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="15">
         <v>2.4305555555555601E-2</v>
       </c>
       <c r="C9" s="4"/>
@@ -853,7 +871,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="15">
         <v>2.7777777777777801E-2</v>
       </c>
       <c r="C10" s="4"/>
@@ -864,7 +882,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="15">
         <v>3.125E-2</v>
       </c>
       <c r="C11" s="4"/>
@@ -875,7 +893,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="15">
         <v>3.4722222222222203E-2</v>
       </c>
       <c r="C12" s="4"/>
@@ -886,7 +904,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="15">
         <v>3.8194444444444399E-2</v>
       </c>
       <c r="C13" s="4"/>
@@ -897,7 +915,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="15">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="C14" s="4"/>
@@ -908,7 +926,7 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="15">
         <v>4.5138888888888902E-2</v>
       </c>
       <c r="C15" s="4"/>
@@ -919,7 +937,7 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="15">
         <v>4.8611111111111098E-2</v>
       </c>
       <c r="C16" s="4"/>
@@ -930,7 +948,7 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="15">
         <v>5.2083333333333301E-2</v>
       </c>
       <c r="C17" s="4"/>
@@ -941,7 +959,7 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="15">
         <v>5.5555555555555601E-2</v>
       </c>
       <c r="C18" s="4"/>
@@ -952,7 +970,7 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="15">
         <v>5.9027777777777797E-2</v>
       </c>
       <c r="C19" s="4"/>
@@ -963,7 +981,7 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="15">
         <v>6.25E-2</v>
       </c>
       <c r="C20" s="4"/>
@@ -974,7 +992,7 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="15">
         <v>6.5972222222222196E-2</v>
       </c>
       <c r="C21" s="4"/>
@@ -985,7 +1003,7 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="15">
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="C22" s="4"/>
@@ -996,7 +1014,7 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="15">
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="C23" s="4"/>
@@ -1007,7 +1025,7 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="15">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="C24" s="4"/>
@@ -1018,7 +1036,7 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="15">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="C25" s="4"/>
@@ -1029,7 +1047,7 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="15">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="C26" s="4"/>
@@ -1040,7 +1058,7 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="15">
         <v>8.6805555555555594E-2</v>
       </c>
       <c r="C27" s="4"/>
@@ -1051,7 +1069,7 @@
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="15">
         <v>9.0277777777777804E-2</v>
       </c>
       <c r="C28" s="4"/>
@@ -1062,7 +1080,7 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="15">
         <v>9.375E-2</v>
       </c>
       <c r="C29" s="4"/>
@@ -1073,7 +1091,7 @@
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="15">
         <v>9.7222222222222196E-2</v>
       </c>
       <c r="C30" s="4"/>
@@ -1084,7 +1102,7 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="15">
         <v>0.100694444444444</v>
       </c>
       <c r="C31" s="4"/>
@@ -1095,7 +1113,7 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>0.104166666666667</v>
       </c>
       <c r="C32" s="4"/>
@@ -1106,7 +1124,7 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="15">
         <v>0.10763888888888901</v>
       </c>
       <c r="C33" s="4"/>
@@ -1117,7 +1135,7 @@
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="15">
         <v>0.11111111111111099</v>
       </c>
       <c r="C34" s="4"/>
@@ -1128,7 +1146,7 @@
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="15">
         <v>0.114583333333333</v>
       </c>
       <c r="C35" s="4"/>
@@ -1139,7 +1157,7 @@
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="15">
         <v>0.118055555555556</v>
       </c>
       <c r="C36" s="4"/>
@@ -1150,7 +1168,7 @@
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="15">
         <v>0.121527777777778</v>
       </c>
       <c r="C37" s="4"/>
@@ -1161,7 +1179,7 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="15">
         <v>0.125</v>
       </c>
       <c r="C38" s="4"/>
@@ -1172,7 +1190,7 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="15">
         <v>0.12847222222222199</v>
       </c>
       <c r="C39" s="4"/>
@@ -1183,7 +1201,7 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="15">
         <v>0.131944444444444</v>
       </c>
       <c r="C40" s="4"/>
@@ -1194,7 +1212,7 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="15">
         <v>0.13541666666666699</v>
       </c>
       <c r="C41" s="4"/>
@@ -1205,7 +1223,7 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="15">
         <v>0.13888888888888901</v>
       </c>
       <c r="C42" s="4"/>
@@ -1216,7 +1234,7 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="15">
         <v>0.14236111111111099</v>
       </c>
       <c r="C43" s="4"/>
@@ -1227,7 +1245,7 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="A44" s="15">
         <v>0.14583333333333301</v>
       </c>
       <c r="C44" s="4"/>
@@ -1238,7 +1256,7 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="A45" s="15">
         <v>0.149305555555556</v>
       </c>
       <c r="C45" s="4"/>
@@ -1249,7 +1267,7 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="15">
         <v>0.15277777777777801</v>
       </c>
       <c r="C46" s="4"/>
@@ -1260,7 +1278,7 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="A47" s="15">
         <v>0.15625</v>
       </c>
       <c r="C47" s="4"/>
@@ -1271,7 +1289,7 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="15">
         <v>0.15972222222222199</v>
       </c>
       <c r="C48" s="4"/>
@@ -1282,7 +1300,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49" s="15">
         <v>0.163194444444444</v>
       </c>
       <c r="C49" s="4"/>
@@ -1293,7 +1311,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50" s="15">
         <v>0.16666666666666699</v>
       </c>
       <c r="C50" s="4"/>
@@ -1304,7 +1322,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51" s="15">
         <v>0.17013888888888901</v>
       </c>
       <c r="C51" s="4"/>
@@ -1315,7 +1333,7 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="15">
         <v>0.17361111111111099</v>
       </c>
       <c r="C52" s="4"/>
@@ -1326,7 +1344,7 @@
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+      <c r="A53" s="15">
         <v>0.17708333333333301</v>
       </c>
       <c r="C53" s="4"/>
@@ -1337,7 +1355,7 @@
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
+      <c r="A54" s="15">
         <v>0.180555555555556</v>
       </c>
       <c r="C54" s="4"/>
@@ -1348,7 +1366,7 @@
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="15">
         <v>0.18402777777777801</v>
       </c>
       <c r="C55" s="4"/>
@@ -1359,7 +1377,7 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+      <c r="A56" s="15">
         <v>0.1875</v>
       </c>
       <c r="C56" s="4"/>
@@ -1370,7 +1388,7 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+      <c r="A57" s="15">
         <v>0.19097222222222199</v>
       </c>
       <c r="C57" s="4"/>
@@ -1381,7 +1399,7 @@
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+      <c r="A58" s="15">
         <v>0.194444444444444</v>
       </c>
       <c r="C58" s="4"/>
@@ -1392,7 +1410,7 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+      <c r="A59" s="15">
         <v>0.19791666666666699</v>
       </c>
       <c r="C59" s="4"/>
@@ -1403,7 +1421,7 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
+      <c r="A60" s="15">
         <v>0.20138888888888901</v>
       </c>
       <c r="C60" s="4"/>
@@ -1414,7 +1432,7 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+      <c r="A61" s="15">
         <v>0.20486111111111099</v>
       </c>
       <c r="C61" s="4"/>
@@ -1425,7 +1443,7 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="15">
         <v>0.20833333333333301</v>
       </c>
       <c r="C62" s="4"/>
@@ -1436,7 +1454,7 @@
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="A63" s="15">
         <v>0.211805555555556</v>
       </c>
       <c r="C63" s="4"/>
@@ -1447,7 +1465,7 @@
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+      <c r="A64" s="15">
         <v>0.21527777777777801</v>
       </c>
       <c r="C64" s="4"/>
@@ -1458,7 +1476,7 @@
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65" s="15">
         <v>0.21875</v>
       </c>
       <c r="C65" s="4"/>
@@ -1469,7 +1487,7 @@
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66" s="15">
         <v>0.22222222222222199</v>
       </c>
       <c r="C66" s="4"/>
@@ -1480,7 +1498,7 @@
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+      <c r="A67" s="15">
         <v>0.225694444444444</v>
       </c>
       <c r="C67" s="4"/>
@@ -1491,7 +1509,7 @@
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
+      <c r="A68" s="15">
         <v>0.22916666666666699</v>
       </c>
       <c r="C68" s="4"/>
@@ -1502,7 +1520,7 @@
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
+      <c r="A69" s="15">
         <v>0.23263888888888901</v>
       </c>
       <c r="C69" s="4"/>
@@ -1513,7 +1531,7 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="A70" s="15">
         <v>0.23611111111111099</v>
       </c>
       <c r="C70" s="4"/>
@@ -1524,7 +1542,7 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="A71" s="15">
         <v>0.23958333333333301</v>
       </c>
       <c r="C71" s="4"/>
@@ -1535,7 +1553,7 @@
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
+      <c r="A72" s="15">
         <v>0.243055555555556</v>
       </c>
       <c r="C72" s="4"/>
@@ -1546,7 +1564,7 @@
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
+      <c r="A73" s="15">
         <v>0.24652777777777801</v>
       </c>
       <c r="C73" s="4"/>
@@ -1557,7 +1575,7 @@
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
+      <c r="A74" s="15">
         <v>0.25</v>
       </c>
       <c r="C74" s="4"/>
@@ -1568,7 +1586,7 @@
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
+      <c r="A75" s="15">
         <v>0.25347222222222199</v>
       </c>
       <c r="C75" s="4"/>
@@ -1579,7 +1597,7 @@
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13">
+      <c r="A76" s="15">
         <v>0.25694444444444398</v>
       </c>
       <c r="C76" s="4"/>
@@ -1590,7 +1608,7 @@
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13">
+      <c r="A77" s="15">
         <v>0.26041666666666702</v>
       </c>
       <c r="C77" s="4"/>
@@ -1601,7 +1619,7 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13">
+      <c r="A78" s="15">
         <v>0.26388888888888901</v>
       </c>
       <c r="C78" s="4"/>
@@ -1612,7 +1630,7 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13">
+      <c r="A79" s="15">
         <v>0.26736111111111099</v>
       </c>
       <c r="C79" s="4"/>
@@ -1623,24 +1641,24 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13">
+      <c r="A80" s="15">
         <v>0.27083333333333298</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="3"/>
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13">
+      <c r="A81" s="15">
         <v>0.27430555555555602</v>
       </c>
       <c r="C81" s="4"/>
@@ -1651,7 +1669,7 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13">
+      <c r="A82" s="15">
         <v>0.27777777777777801</v>
       </c>
       <c r="C82" s="4"/>
@@ -1662,7 +1680,7 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13">
+      <c r="A83" s="15">
         <v>0.28125</v>
       </c>
       <c r="C83" s="4"/>
@@ -1673,7 +1691,7 @@
       <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13">
+      <c r="A84" s="15">
         <v>0.28472222222222199</v>
       </c>
       <c r="C84" s="4"/>
@@ -1684,7 +1702,7 @@
       <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13">
+      <c r="A85" s="15">
         <v>0.28819444444444398</v>
       </c>
       <c r="C85" s="4"/>
@@ -1695,24 +1713,24 @@
       <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13">
+      <c r="A86" s="15">
         <v>0.29166666666666702</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="3"/>
       <c r="E86" s="5"/>
       <c r="G86" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13">
+      <c r="A87" s="15">
         <v>0.29513888888888901</v>
       </c>
       <c r="C87" s="4"/>
@@ -1723,7 +1741,7 @@
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13">
+      <c r="A88" s="15">
         <v>0.29861111111111099</v>
       </c>
       <c r="C88" s="4"/>
@@ -1734,7 +1752,7 @@
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13">
+      <c r="A89" s="15">
         <v>0.30208333333333298</v>
       </c>
       <c r="C89" s="4"/>
@@ -1745,20 +1763,20 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13">
+      <c r="A90" s="15">
         <v>0.30555555555555602</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="3"/>
       <c r="E90" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="3"/>
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13">
+      <c r="A91" s="15">
         <v>0.30902777777777801</v>
       </c>
       <c r="C91" s="4"/>
@@ -1769,12 +1787,12 @@
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13">
+      <c r="A92" s="15">
         <v>0.3125</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92" s="5"/>
       <c r="G92" s="4"/>
@@ -1782,7 +1800,7 @@
       <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13">
+      <c r="A93" s="15">
         <v>0.31597222222222199</v>
       </c>
       <c r="C93" s="4"/>
@@ -1793,11 +1811,11 @@
       <c r="I93" s="5"/>
     </row>
     <row r="94" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13">
+      <c r="A94" s="15">
         <v>0.31944444444444398</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="5"/>
@@ -1806,7 +1824,7 @@
       <c r="I94" s="5"/>
     </row>
     <row r="95" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13">
+      <c r="A95" s="15">
         <v>0.32291666666666702</v>
       </c>
       <c r="C95" s="4"/>
@@ -1817,7 +1835,7 @@
       <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13">
+      <c r="A96" s="15">
         <v>0.32638888888888901</v>
       </c>
       <c r="C96" s="4"/>
@@ -1826,11 +1844,11 @@
       <c r="G96" s="4"/>
       <c r="H96" s="3"/>
       <c r="I96" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="13">
+      <c r="A97" s="15">
         <v>0.32986111111111099</v>
       </c>
       <c r="C97" s="4"/>
@@ -1841,22 +1859,22 @@
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13">
+      <c r="A98" s="15">
         <v>0.33333333333333298</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="3"/>
       <c r="E98" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13">
+      <c r="A99" s="15">
         <v>0.33680555555555602</v>
       </c>
       <c r="C99" s="4"/>
@@ -1867,27 +1885,27 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13">
+      <c r="A100" s="15">
         <v>0.34027777777777801</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="3"/>
       <c r="E100" s="5"/>
       <c r="G100" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13">
+      <c r="A101" s="15">
         <v>0.34375</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E101" s="5"/>
       <c r="G101" s="4"/>
@@ -1895,7 +1913,7 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13">
+      <c r="A102" s="15">
         <v>0.34722222222222199</v>
       </c>
       <c r="C102" s="4"/>
@@ -1906,7 +1924,7 @@
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="13">
+      <c r="A103" s="15">
         <v>0.35069444444444398</v>
       </c>
       <c r="C103" s="4"/>
@@ -1916,7 +1934,7 @@
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="13">
+      <c r="A104" s="15">
         <v>0.35416666666666702</v>
       </c>
       <c r="C104" s="4"/>
@@ -1927,7 +1945,7 @@
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13">
+      <c r="A105" s="15">
         <v>0.35763888888888901</v>
       </c>
       <c r="C105" s="4"/>
@@ -1938,24 +1956,24 @@
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13">
+      <c r="A106" s="15">
         <v>0.36111111111111099</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="3"/>
       <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13">
+      <c r="A107" s="15">
         <v>0.36458333333333298</v>
       </c>
       <c r="C107" s="4"/>
@@ -1966,30 +1984,30 @@
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="13">
+      <c r="A108" s="15">
         <v>0.36805555555555602</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="13">
+      <c r="A109" s="15">
         <v>0.37152777777777801</v>
       </c>
       <c r="C109" s="4"/>
@@ -2000,30 +2018,30 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13">
+      <c r="A110" s="15">
         <v>0.375</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13">
+      <c r="A111" s="15">
         <v>0.37847222222222199</v>
       </c>
       <c r="C111" s="4"/>
@@ -2034,7 +2052,7 @@
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13">
+      <c r="A112" s="15">
         <v>0.38194444444444398</v>
       </c>
       <c r="C112" s="4"/>
@@ -2045,7 +2063,7 @@
       <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13">
+      <c r="A113" s="15">
         <v>0.38541666666666702</v>
       </c>
       <c r="C113" s="4"/>
@@ -2056,7 +2074,7 @@
       <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13">
+      <c r="A114" s="15">
         <v>0.38888888888888901</v>
       </c>
       <c r="C114" s="4"/>
@@ -2067,7 +2085,7 @@
       <c r="I114" s="5"/>
     </row>
     <row r="115" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13">
+      <c r="A115" s="15">
         <v>0.39236111111111099</v>
       </c>
       <c r="C115" s="4"/>
@@ -2078,7 +2096,7 @@
       <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13">
+      <c r="A116" s="15">
         <v>0.39583333333333298</v>
       </c>
       <c r="C116" s="4"/>
@@ -2089,7 +2107,7 @@
       <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="13">
+      <c r="A117" s="15">
         <v>0.39930555555555602</v>
       </c>
       <c r="C117" s="4"/>
@@ -2100,7 +2118,7 @@
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13">
+      <c r="A118" s="15">
         <v>0.40277777777777801</v>
       </c>
       <c r="C118" s="4"/>
@@ -2111,7 +2129,7 @@
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13">
+      <c r="A119" s="15">
         <v>0.40625</v>
       </c>
       <c r="C119" s="4"/>
@@ -2122,24 +2140,24 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13">
+      <c r="A120" s="15">
         <v>0.40972222222222199</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="3"/>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="13">
+      <c r="A121" s="15">
         <v>0.41319444444444398</v>
       </c>
       <c r="C121" s="4"/>
@@ -2150,24 +2168,24 @@
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="13">
+      <c r="A122" s="15">
         <v>0.41666666666666702</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="3"/>
       <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="13">
+      <c r="A123" s="15">
         <v>0.42013888888888901</v>
       </c>
       <c r="C123" s="4"/>
@@ -2178,7 +2196,7 @@
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="13">
+      <c r="A124" s="15">
         <v>0.42361111111111099</v>
       </c>
       <c r="C124" s="4"/>
@@ -2189,7 +2207,7 @@
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="13">
+      <c r="A125" s="15">
         <v>0.42708333333333298</v>
       </c>
       <c r="C125" s="4"/>
@@ -2200,24 +2218,24 @@
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13">
+      <c r="A126" s="15">
         <v>0.43055555555555602</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="3"/>
       <c r="E126" s="5"/>
       <c r="G126" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="13">
+      <c r="A127" s="15">
         <v>0.43402777777777801</v>
       </c>
       <c r="C127" s="4"/>
@@ -2228,7 +2246,7 @@
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13">
+      <c r="A128" s="15">
         <v>0.4375</v>
       </c>
       <c r="C128" s="4"/>
@@ -2239,7 +2257,7 @@
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="13">
+      <c r="A129" s="15">
         <v>0.44097222222222199</v>
       </c>
       <c r="C129" s="4"/>
@@ -2250,24 +2268,24 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="13">
+      <c r="A130" s="15">
         <v>0.44444444444444398</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="3"/>
       <c r="E130" s="5"/>
       <c r="G130" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="13">
+      <c r="A131" s="15">
         <v>0.44791666666666702</v>
       </c>
       <c r="C131" s="4"/>
@@ -2278,24 +2296,24 @@
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="13">
+      <c r="A132" s="15">
         <v>0.45138888888888901</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="3"/>
       <c r="I132" s="5"/>
     </row>
     <row r="133" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="13">
+      <c r="A133" s="15">
         <v>0.45486111111111099</v>
       </c>
       <c r="C133" s="4"/>
@@ -2306,24 +2324,24 @@
       <c r="I133" s="5"/>
     </row>
     <row r="134" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="13">
+      <c r="A134" s="15">
         <v>0.45833333333333298</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="3"/>
       <c r="I134" s="5"/>
     </row>
     <row r="135" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="13">
+      <c r="A135" s="15">
         <v>0.46180555555555602</v>
       </c>
       <c r="C135" s="4"/>
@@ -2334,7 +2352,7 @@
       <c r="I135" s="5"/>
     </row>
     <row r="136" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="13">
+      <c r="A136" s="15">
         <v>0.46527777777777801</v>
       </c>
       <c r="C136" s="4"/>
@@ -2345,7 +2363,7 @@
       <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="13">
+      <c r="A137" s="15">
         <v>0.46875</v>
       </c>
       <c r="C137" s="4"/>
@@ -2356,7 +2374,7 @@
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="13">
+      <c r="A138" s="15">
         <v>0.47222222222222199</v>
       </c>
       <c r="C138" s="4"/>
@@ -2367,7 +2385,7 @@
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="13">
+      <c r="A139" s="15">
         <v>0.47569444444444398</v>
       </c>
       <c r="C139" s="4"/>
@@ -2378,7 +2396,7 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="13">
+      <c r="A140" s="15">
         <v>0.47916666666666702</v>
       </c>
       <c r="C140" s="4"/>
@@ -2389,7 +2407,7 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="13">
+      <c r="A141" s="15">
         <v>0.48263888888888901</v>
       </c>
       <c r="C141" s="4"/>
@@ -2400,7 +2418,7 @@
       <c r="I141" s="5"/>
     </row>
     <row r="142" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="13">
+      <c r="A142" s="15">
         <v>0.48611111111111099</v>
       </c>
       <c r="C142" s="4"/>
@@ -2411,7 +2429,7 @@
       <c r="I142" s="5"/>
     </row>
     <row r="143" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="13">
+      <c r="A143" s="15">
         <v>0.48958333333333298</v>
       </c>
       <c r="C143" s="4"/>
@@ -2422,24 +2440,24 @@
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="13">
+      <c r="A144" s="15">
         <v>0.49305555555555602</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="3"/>
       <c r="I144" s="5"/>
     </row>
     <row r="145" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="13">
+      <c r="A145" s="15">
         <v>0.49652777777777801</v>
       </c>
       <c r="C145" s="4"/>
@@ -2450,30 +2468,30 @@
       <c r="I145" s="5"/>
     </row>
     <row r="146" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13">
+      <c r="A146" s="15">
         <v>0.5</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="13">
+      <c r="A147" s="15">
         <v>0.50347222222222199</v>
       </c>
       <c r="C147" s="4"/>
@@ -2484,7 +2502,7 @@
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="13">
+      <c r="A148" s="15">
         <v>0.50694444444444398</v>
       </c>
       <c r="C148" s="4"/>
@@ -2495,7 +2513,7 @@
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="13">
+      <c r="A149" s="15">
         <v>0.51041666666666696</v>
       </c>
       <c r="C149" s="4"/>
@@ -2506,7 +2524,7 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="13">
+      <c r="A150" s="15">
         <v>0.51388888888888895</v>
       </c>
       <c r="C150" s="4"/>
@@ -2517,7 +2535,7 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="13">
+      <c r="A151" s="15">
         <v>0.51736111111111105</v>
       </c>
       <c r="C151" s="4"/>
@@ -2528,7 +2546,7 @@
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="13">
+      <c r="A152" s="15">
         <v>0.52083333333333304</v>
       </c>
       <c r="C152" s="4"/>
@@ -2539,7 +2557,7 @@
       <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="13">
+      <c r="A153" s="15">
         <v>0.52430555555555602</v>
       </c>
       <c r="C153" s="4"/>
@@ -2550,7 +2568,7 @@
       <c r="I153" s="5"/>
     </row>
     <row r="154" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13">
+      <c r="A154" s="15">
         <v>0.52777777777777801</v>
       </c>
       <c r="C154" s="4"/>
@@ -2561,7 +2579,7 @@
       <c r="I154" s="5"/>
     </row>
     <row r="155" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13">
+      <c r="A155" s="15">
         <v>0.53125</v>
       </c>
       <c r="C155" s="4"/>
@@ -2572,24 +2590,24 @@
       <c r="I155" s="5"/>
     </row>
     <row r="156" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="13">
+      <c r="A156" s="15">
         <v>0.53472222222222199</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="3"/>
       <c r="I156" s="5"/>
     </row>
     <row r="157" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="13">
+      <c r="A157" s="15">
         <v>0.53819444444444398</v>
       </c>
       <c r="C157" s="4"/>
@@ -2600,7 +2618,7 @@
       <c r="I157" s="5"/>
     </row>
     <row r="158" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13">
+      <c r="A158" s="15">
         <v>0.54166666666666696</v>
       </c>
       <c r="C158" s="4"/>
@@ -2611,7 +2629,7 @@
       <c r="I158" s="5"/>
     </row>
     <row r="159" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="13">
+      <c r="A159" s="15">
         <v>0.54513888888888895</v>
       </c>
       <c r="C159" s="4"/>
@@ -2622,7 +2640,7 @@
       <c r="I159" s="5"/>
     </row>
     <row r="160" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="13">
+      <c r="A160" s="15">
         <v>0.54861111111111105</v>
       </c>
       <c r="C160" s="4"/>
@@ -2633,7 +2651,7 @@
       <c r="I160" s="5"/>
     </row>
     <row r="161" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="13">
+      <c r="A161" s="15">
         <v>0.55208333333333304</v>
       </c>
       <c r="C161" s="4"/>
@@ -2644,7 +2662,7 @@
       <c r="I161" s="5"/>
     </row>
     <row r="162" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="13">
+      <c r="A162" s="15">
         <v>0.55555555555555602</v>
       </c>
       <c r="C162" s="4"/>
@@ -2655,7 +2673,7 @@
       <c r="I162" s="5"/>
     </row>
     <row r="163" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="13">
+      <c r="A163" s="15">
         <v>0.55902777777777801</v>
       </c>
       <c r="C163" s="4"/>
@@ -2666,7 +2684,7 @@
       <c r="I163" s="5"/>
     </row>
     <row r="164" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13">
+      <c r="A164" s="15">
         <v>0.5625</v>
       </c>
       <c r="C164" s="4"/>
@@ -2677,7 +2695,7 @@
       <c r="I164" s="5"/>
     </row>
     <row r="165" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="13">
+      <c r="A165" s="15">
         <v>0.56597222222222199</v>
       </c>
       <c r="C165" s="4"/>
@@ -2688,20 +2706,20 @@
       <c r="I165" s="5"/>
     </row>
     <row r="166" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="13">
+      <c r="A166" s="15">
         <v>0.56944444444444398</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="3"/>
       <c r="E166" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="3"/>
       <c r="I166" s="5"/>
     </row>
     <row r="167" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="13">
+      <c r="A167" s="15">
         <v>0.57291666666666696</v>
       </c>
       <c r="C167" s="4"/>
@@ -2712,24 +2730,24 @@
       <c r="I167" s="5"/>
     </row>
     <row r="168" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13">
+      <c r="A168" s="15">
         <v>0.57638888888888895</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="3"/>
       <c r="I168" s="5"/>
     </row>
     <row r="169" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="13">
+      <c r="A169" s="15">
         <v>0.57986111111111105</v>
       </c>
       <c r="C169" s="4"/>
@@ -2740,24 +2758,24 @@
       <c r="I169" s="5"/>
     </row>
     <row r="170" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="13">
+      <c r="A170" s="15">
         <v>0.58333333333333304</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="3"/>
       <c r="E170" s="5"/>
       <c r="G170" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13">
+      <c r="A171" s="15">
         <v>0.58680555555555503</v>
       </c>
       <c r="C171" s="4"/>
@@ -2768,7 +2786,7 @@
       <c r="I171" s="5"/>
     </row>
     <row r="172" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="13">
+      <c r="A172" s="15">
         <v>0.59027777777777801</v>
       </c>
       <c r="C172" s="4"/>
@@ -2779,7 +2797,7 @@
       <c r="I172" s="5"/>
     </row>
     <row r="173" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="13">
+      <c r="A173" s="15">
         <v>0.59375</v>
       </c>
       <c r="C173" s="4"/>
@@ -2788,11 +2806,11 @@
       <c r="G173" s="4"/>
       <c r="H173" s="3"/>
       <c r="I173" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="13">
+      <c r="A174" s="15">
         <v>0.59722222222222199</v>
       </c>
       <c r="C174" s="4"/>
@@ -2803,7 +2821,7 @@
       <c r="I174" s="5"/>
     </row>
     <row r="175" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="13">
+      <c r="A175" s="15">
         <v>0.60069444444444398</v>
       </c>
       <c r="C175" s="4"/>
@@ -2814,7 +2832,7 @@
       <c r="I175" s="5"/>
     </row>
     <row r="176" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="13">
+      <c r="A176" s="15">
         <v>0.60416666666666696</v>
       </c>
       <c r="C176" s="4"/>
@@ -2825,7 +2843,7 @@
       <c r="I176" s="5"/>
     </row>
     <row r="177" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="13">
+      <c r="A177" s="15">
         <v>0.60763888888888895</v>
       </c>
       <c r="C177" s="4"/>
@@ -2836,24 +2854,24 @@
       <c r="I177" s="5"/>
     </row>
     <row r="178" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="13">
+      <c r="A178" s="15">
         <v>0.61111111111111105</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="3"/>
       <c r="I178" s="5"/>
     </row>
     <row r="179" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="13">
+      <c r="A179" s="15">
         <v>0.61458333333333304</v>
       </c>
       <c r="C179" s="4"/>
@@ -2864,24 +2882,24 @@
       <c r="I179" s="5"/>
     </row>
     <row r="180" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="13">
+      <c r="A180" s="15">
         <v>0.61805555555555503</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="3"/>
       <c r="I180" s="5"/>
     </row>
     <row r="181" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="13">
+      <c r="A181" s="15">
         <v>0.62152777777777801</v>
       </c>
       <c r="C181" s="4"/>
@@ -2892,7 +2910,7 @@
       <c r="I181" s="5"/>
     </row>
     <row r="182" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="13">
+      <c r="A182" s="15">
         <v>0.625</v>
       </c>
       <c r="C182" s="4"/>
@@ -2903,7 +2921,7 @@
       <c r="I182" s="5"/>
     </row>
     <row r="183" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="13">
+      <c r="A183" s="15">
         <v>0.62847222222222199</v>
       </c>
       <c r="C183" s="4"/>
@@ -2914,7 +2932,7 @@
       <c r="I183" s="5"/>
     </row>
     <row r="184" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="13">
+      <c r="A184" s="15">
         <v>0.63194444444444398</v>
       </c>
       <c r="C184" s="4"/>
@@ -2925,7 +2943,7 @@
       <c r="I184" s="5"/>
     </row>
     <row r="185" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="13">
+      <c r="A185" s="15">
         <v>0.63541666666666696</v>
       </c>
       <c r="C185" s="4"/>
@@ -2936,7 +2954,7 @@
       <c r="I185" s="5"/>
     </row>
     <row r="186" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="13">
+      <c r="A186" s="15">
         <v>0.63888888888888895</v>
       </c>
       <c r="C186" s="4"/>
@@ -2947,7 +2965,7 @@
       <c r="I186" s="5"/>
     </row>
     <row r="187" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="13">
+      <c r="A187" s="15">
         <v>0.64236111111111105</v>
       </c>
       <c r="C187" s="4"/>
@@ -2958,7 +2976,7 @@
       <c r="I187" s="5"/>
     </row>
     <row r="188" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="13">
+      <c r="A188" s="15">
         <v>0.64583333333333304</v>
       </c>
       <c r="C188" s="4"/>
@@ -2969,7 +2987,7 @@
       <c r="I188" s="5"/>
     </row>
     <row r="189" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="13">
+      <c r="A189" s="15">
         <v>0.64930555555555503</v>
       </c>
       <c r="C189" s="4"/>
@@ -2980,24 +2998,24 @@
       <c r="I189" s="5"/>
     </row>
     <row r="190" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="13">
+      <c r="A190" s="15">
         <v>0.65277777777777801</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="3"/>
       <c r="I190" s="5"/>
     </row>
     <row r="191" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="13">
+      <c r="A191" s="15">
         <v>0.65625</v>
       </c>
       <c r="C191" s="4"/>
@@ -3008,24 +3026,24 @@
       <c r="I191" s="5"/>
     </row>
     <row r="192" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="13">
+      <c r="A192" s="15">
         <v>0.65972222222222199</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="3"/>
       <c r="I192" s="5"/>
     </row>
     <row r="193" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="13">
+      <c r="A193" s="15">
         <v>0.66319444444444398</v>
       </c>
       <c r="C193" s="4"/>
@@ -3036,24 +3054,24 @@
       <c r="I193" s="5"/>
     </row>
     <row r="194" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="13">
+      <c r="A194" s="15">
         <v>0.66666666666666696</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="3"/>
       <c r="E194" s="5"/>
       <c r="G194" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="13">
+      <c r="A195" s="15">
         <v>0.67013888888888895</v>
       </c>
       <c r="C195" s="4"/>
@@ -3064,7 +3082,7 @@
       <c r="I195" s="5"/>
     </row>
     <row r="196" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="13">
+      <c r="A196" s="15">
         <v>0.67361111111111105</v>
       </c>
       <c r="C196" s="4"/>
@@ -3075,7 +3093,7 @@
       <c r="I196" s="5"/>
     </row>
     <row r="197" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="13">
+      <c r="A197" s="15">
         <v>0.67708333333333304</v>
       </c>
       <c r="C197" s="4"/>
@@ -3086,24 +3104,24 @@
       <c r="I197" s="5"/>
     </row>
     <row r="198" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="13">
+      <c r="A198" s="15">
         <v>0.68055555555555503</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="3"/>
       <c r="E198" s="5"/>
       <c r="G198" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="13">
+      <c r="A199" s="15">
         <v>0.68402777777777801</v>
       </c>
       <c r="C199" s="4"/>
@@ -3114,7 +3132,7 @@
       <c r="I199" s="5"/>
     </row>
     <row r="200" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="13">
+      <c r="A200" s="15">
         <v>0.6875</v>
       </c>
       <c r="C200" s="4"/>
@@ -3125,7 +3143,7 @@
       <c r="I200" s="5"/>
     </row>
     <row r="201" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="13">
+      <c r="A201" s="15">
         <v>0.69097222222222199</v>
       </c>
       <c r="C201" s="4"/>
@@ -3136,24 +3154,24 @@
       <c r="I201" s="5"/>
     </row>
     <row r="202" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="13">
+      <c r="A202" s="15">
         <v>0.69444444444444398</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="3"/>
       <c r="I202" s="5"/>
     </row>
     <row r="203" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="13">
+      <c r="A203" s="15">
         <v>0.69791666666666696</v>
       </c>
       <c r="C203" s="4"/>
@@ -3164,7 +3182,7 @@
       <c r="I203" s="5"/>
     </row>
     <row r="204" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="13">
+      <c r="A204" s="15">
         <v>0.70138888888888895</v>
       </c>
       <c r="C204" s="4"/>
@@ -3175,7 +3193,7 @@
       <c r="I204" s="5"/>
     </row>
     <row r="205" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="13">
+      <c r="A205" s="15">
         <v>0.70486111111111105</v>
       </c>
       <c r="C205" s="4"/>
@@ -3186,7 +3204,7 @@
       <c r="I205" s="5"/>
     </row>
     <row r="206" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="13">
+      <c r="A206" s="15">
         <v>0.70833333333333304</v>
       </c>
       <c r="C206" s="4"/>
@@ -3197,7 +3215,7 @@
       <c r="I206" s="5"/>
     </row>
     <row r="207" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="13">
+      <c r="A207" s="15">
         <v>0.71180555555555503</v>
       </c>
       <c r="C207" s="4"/>
@@ -3208,24 +3226,24 @@
       <c r="I207" s="5"/>
     </row>
     <row r="208" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="13">
+      <c r="A208" s="15">
         <v>0.71527777777777801</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="3"/>
       <c r="I208" s="5"/>
     </row>
     <row r="209" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="13">
+      <c r="A209" s="15">
         <v>0.71875</v>
       </c>
       <c r="C209" s="4"/>
@@ -3236,7 +3254,7 @@
       <c r="I209" s="5"/>
     </row>
     <row r="210" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="13">
+      <c r="A210" s="15">
         <v>0.72222222222222199</v>
       </c>
       <c r="C210" s="4"/>
@@ -3247,7 +3265,7 @@
       <c r="I210" s="5"/>
     </row>
     <row r="211" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="13">
+      <c r="A211" s="15">
         <v>0.72569444444444398</v>
       </c>
       <c r="C211" s="4"/>
@@ -3258,7 +3276,7 @@
       <c r="I211" s="5"/>
     </row>
     <row r="212" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="13">
+      <c r="A212" s="15">
         <v>0.72916666666666696</v>
       </c>
       <c r="C212" s="4"/>
@@ -3269,7 +3287,7 @@
       <c r="I212" s="5"/>
     </row>
     <row r="213" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="13">
+      <c r="A213" s="15">
         <v>0.73263888888888895</v>
       </c>
       <c r="C213" s="4"/>
@@ -3280,7 +3298,7 @@
       <c r="I213" s="5"/>
     </row>
     <row r="214" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="13">
+      <c r="A214" s="15">
         <v>0.73611111111111105</v>
       </c>
       <c r="C214" s="4"/>
@@ -3291,7 +3309,7 @@
       <c r="I214" s="5"/>
     </row>
     <row r="215" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="13">
+      <c r="A215" s="15">
         <v>0.73958333333333304</v>
       </c>
       <c r="C215" s="4"/>
@@ -3302,14 +3320,14 @@
       <c r="I215" s="5"/>
     </row>
     <row r="216" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="13">
+      <c r="A216" s="15">
         <v>0.74305555555555503</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E216" s="5"/>
       <c r="G216" s="4"/>
@@ -3317,14 +3335,14 @@
       <c r="I216" s="5"/>
     </row>
     <row r="217" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="13">
+      <c r="A217" s="15">
         <v>0.74652777777777801</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E217" s="5"/>
       <c r="G217" s="4"/>
@@ -3332,24 +3350,24 @@
       <c r="I217" s="5"/>
     </row>
     <row r="218" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="13">
+      <c r="A218" s="15">
         <v>0.75</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="3"/>
       <c r="E218" s="5"/>
       <c r="G218" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="13">
+      <c r="A219" s="15">
         <v>0.75347222222222199</v>
       </c>
       <c r="C219" s="4"/>
@@ -3360,7 +3378,7 @@
       <c r="I219" s="5"/>
     </row>
     <row r="220" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="13">
+      <c r="A220" s="15">
         <v>0.75694444444444398</v>
       </c>
       <c r="C220" s="4"/>
@@ -3371,7 +3389,7 @@
       <c r="I220" s="5"/>
     </row>
     <row r="221" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="13">
+      <c r="A221" s="15">
         <v>0.76041666666666696</v>
       </c>
       <c r="C221" s="4"/>
@@ -3382,7 +3400,7 @@
       <c r="I221" s="5"/>
     </row>
     <row r="222" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="13">
+      <c r="A222" s="15">
         <v>0.76388888888888895</v>
       </c>
       <c r="C222" s="4"/>
@@ -3393,7 +3411,7 @@
       <c r="I222" s="5"/>
     </row>
     <row r="223" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="13">
+      <c r="A223" s="15">
         <v>0.76736111111111105</v>
       </c>
       <c r="C223" s="4"/>
@@ -3404,27 +3422,27 @@
       <c r="I223" s="5"/>
     </row>
     <row r="224" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="13">
+      <c r="A224" s="15">
         <v>0.77083333333333304</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="3"/>
       <c r="E224" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="3"/>
       <c r="I224" s="5"/>
     </row>
     <row r="225" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="13">
+      <c r="A225" s="15">
         <v>0.77430555555555503</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E225" s="5"/>
       <c r="G225" s="4"/>
@@ -3432,7 +3450,7 @@
       <c r="I225" s="5"/>
     </row>
     <row r="226" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="13">
+      <c r="A226" s="15">
         <v>0.77777777777777801</v>
       </c>
       <c r="C226" s="4"/>
@@ -3443,7 +3461,7 @@
       <c r="I226" s="5"/>
     </row>
     <row r="227" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="13">
+      <c r="A227" s="15">
         <v>0.78125</v>
       </c>
       <c r="C227" s="4"/>
@@ -3454,7 +3472,7 @@
       <c r="I227" s="5"/>
     </row>
     <row r="228" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="13">
+      <c r="A228" s="15">
         <v>0.78472222222222199</v>
       </c>
       <c r="C228" s="4"/>
@@ -3465,7 +3483,7 @@
       <c r="I228" s="5"/>
     </row>
     <row r="229" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="13">
+      <c r="A229" s="15">
         <v>0.78819444444444398</v>
       </c>
       <c r="C229" s="4"/>
@@ -3476,7 +3494,7 @@
       <c r="I229" s="5"/>
     </row>
     <row r="230" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="13">
+      <c r="A230" s="15">
         <v>0.79166666666666696</v>
       </c>
       <c r="C230" s="4"/>
@@ -3487,7 +3505,7 @@
       <c r="I230" s="5"/>
     </row>
     <row r="231" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="13">
+      <c r="A231" s="15">
         <v>0.79513888888888895</v>
       </c>
       <c r="C231" s="4"/>
@@ -3498,7 +3516,7 @@
       <c r="I231" s="5"/>
     </row>
     <row r="232" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="13">
+      <c r="A232" s="15">
         <v>0.79861111111111105</v>
       </c>
       <c r="C232" s="4"/>
@@ -3509,7 +3527,7 @@
       <c r="I232" s="5"/>
     </row>
     <row r="233" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="13">
+      <c r="A233" s="15">
         <v>0.80208333333333304</v>
       </c>
       <c r="C233" s="4"/>
@@ -3520,7 +3538,7 @@
       <c r="I233" s="5"/>
     </row>
     <row r="234" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="13">
+      <c r="A234" s="15">
         <v>0.80555555555555503</v>
       </c>
       <c r="C234" s="4"/>
@@ -3531,7 +3549,7 @@
       <c r="I234" s="5"/>
     </row>
     <row r="235" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="13">
+      <c r="A235" s="15">
         <v>0.80902777777777801</v>
       </c>
       <c r="C235" s="4"/>
@@ -3542,7 +3560,7 @@
       <c r="I235" s="5"/>
     </row>
     <row r="236" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="13">
+      <c r="A236" s="15">
         <v>0.8125</v>
       </c>
       <c r="C236" s="4"/>
@@ -3553,7 +3571,7 @@
       <c r="I236" s="5"/>
     </row>
     <row r="237" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="13">
+      <c r="A237" s="15">
         <v>0.81597222222222199</v>
       </c>
       <c r="C237" s="4"/>
@@ -3564,20 +3582,20 @@
       <c r="I237" s="5"/>
     </row>
     <row r="238" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="13">
+      <c r="A238" s="15">
         <v>0.81944444444444398</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="3"/>
       <c r="E238" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="3"/>
       <c r="I238" s="5"/>
     </row>
     <row r="239" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="13">
+      <c r="A239" s="15">
         <v>0.82291666666666696</v>
       </c>
       <c r="C239" s="4"/>
@@ -3588,14 +3606,14 @@
       <c r="I239" s="5"/>
     </row>
     <row r="240" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="13">
+      <c r="A240" s="15">
         <v>0.82638888888888895</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E240" s="5"/>
       <c r="G240" s="4"/>
@@ -3603,7 +3621,7 @@
       <c r="I240" s="5"/>
     </row>
     <row r="241" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="13">
+      <c r="A241" s="15">
         <v>0.82986111111111105</v>
       </c>
       <c r="C241" s="4"/>
@@ -3614,24 +3632,24 @@
       <c r="I241" s="5"/>
     </row>
     <row r="242" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="13">
+      <c r="A242" s="15">
         <v>0.83333333333333304</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="3"/>
       <c r="E242" s="5"/>
       <c r="G242" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="13">
+      <c r="A243" s="15">
         <v>0.83680555555555503</v>
       </c>
       <c r="C243" s="4"/>
@@ -3642,7 +3660,7 @@
       <c r="I243" s="5"/>
     </row>
     <row r="244" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="13">
+      <c r="A244" s="15">
         <v>0.84027777777777801</v>
       </c>
       <c r="C244" s="4"/>
@@ -3653,7 +3671,7 @@
       <c r="I244" s="5"/>
     </row>
     <row r="245" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="13">
+      <c r="A245" s="15">
         <v>0.84375</v>
       </c>
       <c r="C245" s="4"/>
@@ -3664,7 +3682,7 @@
       <c r="I245" s="5"/>
     </row>
     <row r="246" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="13">
+      <c r="A246" s="15">
         <v>0.84722222222222199</v>
       </c>
       <c r="C246" s="4"/>
@@ -3675,7 +3693,7 @@
       <c r="I246" s="5"/>
     </row>
     <row r="247" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="13">
+      <c r="A247" s="15">
         <v>0.85069444444444398</v>
       </c>
       <c r="C247" s="4"/>
@@ -3686,7 +3704,7 @@
       <c r="I247" s="5"/>
     </row>
     <row r="248" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="13">
+      <c r="A248" s="15">
         <v>0.85416666666666696</v>
       </c>
       <c r="C248" s="4"/>
@@ -3697,7 +3715,7 @@
       <c r="I248" s="5"/>
     </row>
     <row r="249" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="13">
+      <c r="A249" s="15">
         <v>0.85763888888888895</v>
       </c>
       <c r="C249" s="4"/>
@@ -3708,7 +3726,7 @@
       <c r="I249" s="5"/>
     </row>
     <row r="250" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="13">
+      <c r="A250" s="15">
         <v>0.86111111111111105</v>
       </c>
       <c r="C250" s="4"/>
@@ -3719,7 +3737,7 @@
       <c r="I250" s="5"/>
     </row>
     <row r="251" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="13">
+      <c r="A251" s="15">
         <v>0.86458333333333304</v>
       </c>
       <c r="C251" s="4"/>
@@ -3730,7 +3748,7 @@
       <c r="I251" s="5"/>
     </row>
     <row r="252" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="13">
+      <c r="A252" s="15">
         <v>0.86805555555555503</v>
       </c>
       <c r="C252" s="4"/>
@@ -3741,7 +3759,7 @@
       <c r="I252" s="5"/>
     </row>
     <row r="253" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="13">
+      <c r="A253" s="15">
         <v>0.87152777777777801</v>
       </c>
       <c r="C253" s="4"/>
@@ -3752,24 +3770,24 @@
       <c r="I253" s="5"/>
     </row>
     <row r="254" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="13">
+      <c r="A254" s="15">
         <v>0.875</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="3"/>
       <c r="E254" s="5"/>
       <c r="G254" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="13">
+      <c r="A255" s="15">
         <v>0.87847222222222199</v>
       </c>
       <c r="C255" s="4"/>
@@ -3780,24 +3798,24 @@
       <c r="I255" s="5"/>
     </row>
     <row r="256" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="13">
+      <c r="A256" s="15">
         <v>0.88194444444444398</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="3"/>
       <c r="I256" s="5"/>
     </row>
     <row r="257" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="13">
+      <c r="A257" s="15">
         <v>0.88541666666666696</v>
       </c>
       <c r="C257" s="4"/>
@@ -3808,24 +3826,24 @@
       <c r="I257" s="5"/>
     </row>
     <row r="258" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="13">
+      <c r="A258" s="15">
         <v>0.88888888888888895</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="3"/>
       <c r="E258" s="5"/>
       <c r="G258" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="13">
+      <c r="A259" s="15">
         <v>0.89236111111111105</v>
       </c>
       <c r="C259" s="4"/>
@@ -3836,24 +3854,24 @@
       <c r="I259" s="5"/>
     </row>
     <row r="260" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="13">
+      <c r="A260" s="15">
         <v>0.89583333333333304</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G260" s="4"/>
       <c r="H260" s="3"/>
       <c r="I260" s="5"/>
     </row>
     <row r="261" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="13">
+      <c r="A261" s="15">
         <v>0.89930555555555503</v>
       </c>
       <c r="C261" s="4"/>
@@ -3864,7 +3882,7 @@
       <c r="I261" s="5"/>
     </row>
     <row r="262" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="13">
+      <c r="A262" s="15">
         <v>0.90277777777777801</v>
       </c>
       <c r="C262" s="4"/>
@@ -3875,7 +3893,7 @@
       <c r="I262" s="5"/>
     </row>
     <row r="263" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="13">
+      <c r="A263" s="15">
         <v>0.90625</v>
       </c>
       <c r="C263" s="4"/>
@@ -3886,7 +3904,7 @@
       <c r="I263" s="5"/>
     </row>
     <row r="264" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="13">
+      <c r="A264" s="15">
         <v>0.90972222222222199</v>
       </c>
       <c r="C264" s="4"/>
@@ -3897,7 +3915,7 @@
       <c r="I264" s="5"/>
     </row>
     <row r="265" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="13">
+      <c r="A265" s="15">
         <v>0.91319444444444398</v>
       </c>
       <c r="C265" s="4"/>
@@ -3908,7 +3926,7 @@
       <c r="I265" s="5"/>
     </row>
     <row r="266" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="13">
+      <c r="A266" s="15">
         <v>0.91666666666666696</v>
       </c>
       <c r="C266" s="4"/>
@@ -3919,7 +3937,7 @@
       <c r="I266" s="5"/>
     </row>
     <row r="267" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="13">
+      <c r="A267" s="15">
         <v>0.92013888888888895</v>
       </c>
       <c r="C267" s="4"/>
@@ -3930,7 +3948,7 @@
       <c r="I267" s="5"/>
     </row>
     <row r="268" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="13">
+      <c r="A268" s="15">
         <v>0.92361111111111105</v>
       </c>
       <c r="C268" s="4"/>
@@ -3941,7 +3959,7 @@
       <c r="I268" s="5"/>
     </row>
     <row r="269" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="13">
+      <c r="A269" s="15">
         <v>0.92708333333333304</v>
       </c>
       <c r="C269" s="4"/>
@@ -3952,20 +3970,20 @@
       <c r="I269" s="5"/>
     </row>
     <row r="270" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="13">
+      <c r="A270" s="15">
         <v>0.93055555555555503</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="3"/>
       <c r="E270" s="5"/>
       <c r="G270" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H270" s="3"/>
       <c r="I270" s="5"/>
     </row>
     <row r="271" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="13">
+      <c r="A271" s="15">
         <v>0.93402777777777801</v>
       </c>
       <c r="C271" s="4"/>
@@ -3976,7 +3994,7 @@
       <c r="I271" s="5"/>
     </row>
     <row r="272" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="13">
+      <c r="A272" s="15">
         <v>0.9375</v>
       </c>
       <c r="C272" s="4"/>
@@ -3984,12 +4002,12 @@
       <c r="E272" s="5"/>
       <c r="G272" s="4"/>
       <c r="H272" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I272" s="5"/>
     </row>
     <row r="273" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="13">
+      <c r="A273" s="15">
         <v>0.94097222222222199</v>
       </c>
       <c r="C273" s="4"/>
@@ -4000,7 +4018,7 @@
       <c r="I273" s="5"/>
     </row>
     <row r="274" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="13">
+      <c r="A274" s="15">
         <v>0.94444444444444398</v>
       </c>
       <c r="C274" s="4"/>
@@ -4009,11 +4027,11 @@
       <c r="G274" s="4"/>
       <c r="H274" s="3"/>
       <c r="I274" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="13">
+      <c r="A275" s="15">
         <v>0.94791666666666696</v>
       </c>
       <c r="C275" s="4"/>
@@ -4024,11 +4042,11 @@
       <c r="I275" s="5"/>
     </row>
     <row r="276" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="13">
+      <c r="A276" s="15">
         <v>0.95138888888888895</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" s="5"/>
@@ -4037,7 +4055,7 @@
       <c r="I276" s="5"/>
     </row>
     <row r="277" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="13">
+      <c r="A277" s="15">
         <v>0.95486111111111105</v>
       </c>
       <c r="C277" s="4"/>
@@ -4048,12 +4066,12 @@
       <c r="I277" s="5"/>
     </row>
     <row r="278" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="13">
+      <c r="A278" s="15">
         <v>0.95833333333333304</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E278" s="5"/>
       <c r="G278" s="4"/>
@@ -4061,7 +4079,7 @@
       <c r="I278" s="5"/>
     </row>
     <row r="279" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="13">
+      <c r="A279" s="15">
         <v>0.96180555555555503</v>
       </c>
       <c r="C279" s="4"/>
@@ -4072,20 +4090,20 @@
       <c r="I279" s="5"/>
     </row>
     <row r="280" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="13">
+      <c r="A280" s="15">
         <v>0.96527777777777801</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="3"/>
       <c r="E280" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G280" s="4"/>
       <c r="H280" s="3"/>
       <c r="I280" s="5"/>
     </row>
     <row r="281" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="13">
+      <c r="A281" s="15">
         <v>0.96875</v>
       </c>
       <c r="C281" s="4"/>
@@ -4096,7 +4114,7 @@
       <c r="I281" s="5"/>
     </row>
     <row r="282" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="13">
+      <c r="A282" s="15">
         <v>0.97222222222222199</v>
       </c>
       <c r="C282" s="4"/>
@@ -4107,7 +4125,7 @@
       <c r="I282" s="5"/>
     </row>
     <row r="283" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="13">
+      <c r="A283" s="15">
         <v>0.97569444444444398</v>
       </c>
       <c r="C283" s="4"/>
@@ -4118,7 +4136,7 @@
       <c r="I283" s="5"/>
     </row>
     <row r="284" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="13">
+      <c r="A284" s="15">
         <v>0.97916666666666696</v>
       </c>
       <c r="C284" s="4"/>
@@ -4129,7 +4147,7 @@
       <c r="I284" s="5"/>
     </row>
     <row r="285" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="13">
+      <c r="A285" s="15">
         <v>0.98263888888888895</v>
       </c>
       <c r="C285" s="4"/>
@@ -4140,7 +4158,7 @@
       <c r="I285" s="5"/>
     </row>
     <row r="286" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="13">
+      <c r="A286" s="15">
         <v>0.98611111111111105</v>
       </c>
       <c r="C286" s="4"/>
@@ -4157,7 +4175,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="13">
+      <c r="A287" s="15">
         <v>0.98958333333333304</v>
       </c>
       <c r="C287" s="4"/>
@@ -4168,7 +4186,7 @@
       <c r="I287" s="5"/>
     </row>
     <row r="288" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="13">
+      <c r="A288" s="15">
         <v>0.99305555555555503</v>
       </c>
       <c r="C288" s="4"/>
@@ -4179,7 +4197,7 @@
       <c r="I288" s="5"/>
     </row>
     <row r="289" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="13">
+      <c r="A289" s="15">
         <v>0.99652777777777801</v>
       </c>
       <c r="C289" s="4"/>
@@ -4190,7 +4208,7 @@
       <c r="I289" s="5"/>
     </row>
     <row r="290" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="13">
+      <c r="A290" s="15">
         <v>1</v>
       </c>
       <c r="C290" s="6"/>
